--- a/assets/file/audit internal.xlsx
+++ b/assets/file/audit internal.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IHSAN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FB57B6-F1D8-433E-9FAC-33308FEDDCB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1EF63F6-A496-4C06-9F21-7B86BA6ABC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit Internal - Auditi" sheetId="2" r:id="rId1"/>
     <sheet name="Audit Internal - Auditor" sheetId="5" r:id="rId2"/>
     <sheet name="Audit External-Auditor" sheetId="3" state="hidden" r:id="rId3"/>
-    <sheet name="Auditor External-Auditi" sheetId="4" r:id="rId4"/>
+    <sheet name="Auditor External-Auditi" sheetId="4" state="hidden" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="6" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -664,6 +664,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -673,6 +688,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -682,15 +706,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -717,21 +732,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1064,16 +1064,16 @@
       <c r="C3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
     </row>
     <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -1081,14 +1081,14 @@
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="15"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="37"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="45"/>
     </row>
     <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
@@ -1098,16 +1098,16 @@
         <v>31</v>
       </c>
       <c r="C5" s="16"/>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="34"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="39"/>
     </row>
     <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
@@ -1117,16 +1117,16 @@
       <c r="C6" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="46"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="51"/>
     </row>
     <row r="7" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
@@ -1136,16 +1136,16 @@
       <c r="C7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="43"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="48"/>
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
@@ -1153,14 +1153,14 @@
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="15"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="37"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="45"/>
     </row>
     <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
@@ -1170,16 +1170,16 @@
         <v>31</v>
       </c>
       <c r="C9" s="16"/>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="34"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="39"/>
     </row>
     <row r="10" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
@@ -1189,16 +1189,16 @@
         <v>31</v>
       </c>
       <c r="C10" s="17"/>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="40"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="42"/>
     </row>
     <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
@@ -1206,14 +1206,14 @@
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="37"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="45"/>
     </row>
     <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
@@ -1223,16 +1223,16 @@
       <c r="C12" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="34"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39"/>
     </row>
     <row r="13" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
@@ -1242,16 +1242,16 @@
         <v>31</v>
       </c>
       <c r="C13" s="17"/>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
     </row>
     <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
@@ -1259,14 +1259,14 @@
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="37"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="45"/>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -1276,16 +1276,16 @@
         <v>31</v>
       </c>
       <c r="C15" s="16"/>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="34"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="39"/>
     </row>
     <row r="16" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
@@ -1295,16 +1295,16 @@
         <v>31</v>
       </c>
       <c r="C16" s="17"/>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="40"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="42"/>
     </row>
     <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
@@ -1312,14 +1312,14 @@
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="15"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="37"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="45"/>
     </row>
     <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -1329,16 +1329,16 @@
       <c r="C18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="34"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="39"/>
     </row>
     <row r="19" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
@@ -1348,16 +1348,16 @@
         <v>31</v>
       </c>
       <c r="C19" s="17"/>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="40"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="42"/>
     </row>
     <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
@@ -1365,14 +1365,14 @@
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="15"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="37"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="45"/>
     </row>
     <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
@@ -1382,16 +1382,16 @@
         <v>31</v>
       </c>
       <c r="C21" s="16"/>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="34"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="39"/>
     </row>
     <row r="22" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
@@ -1401,16 +1401,16 @@
         <v>31</v>
       </c>
       <c r="C22" s="17"/>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="40"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="42"/>
     </row>
     <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
@@ -1418,14 +1418,14 @@
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="15"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="37"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="45"/>
     </row>
     <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
@@ -1435,16 +1435,16 @@
         <v>31</v>
       </c>
       <c r="C24" s="16"/>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="34"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="39"/>
     </row>
     <row r="25" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
@@ -1454,134 +1454,148 @@
         <v>31</v>
       </c>
       <c r="C25" s="17"/>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="40"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="42"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="52"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="50"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="52"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="52"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="52"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="50"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="50"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="D18:K18"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="D19:K19"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="D23:K23"/>
     <mergeCell ref="D24:K24"/>
     <mergeCell ref="D25:K25"/>
     <mergeCell ref="D5:K5"/>
@@ -1598,26 +1612,12 @@
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B33:D33"/>
-    <mergeCell ref="D19:K19"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="D23:K23"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="D18:K18"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1628,7 +1628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B30" sqref="B30:D30"/>
     </sheetView>
   </sheetViews>
@@ -1896,54 +1896,54 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36"/>
@@ -1995,14 +1995,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B35:D35"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B35:D35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2223,86 +2223,92 @@
       <c r="D25" s="5"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="52"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
@@ -2310,12 +2316,6 @@
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2325,7 +2325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2534,122 +2534,134 @@
       <c r="D25" s="5"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="52"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="52"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="52"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="52"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
@@ -2657,18 +2669,6 @@
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/file/audit internal.xlsx
+++ b/assets/file/audit internal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IHSAN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\navigo-transportation.github.io\assets\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1EF63F6-A496-4C06-9F21-7B86BA6ABC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F1EEB6-3824-4565-AACF-C2589379A3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit Internal - Auditi" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="65">
   <si>
     <t>NIM</t>
   </si>
@@ -257,9 +257,6 @@
   </si>
   <si>
     <t>Auditor 2  PT NAVIGO INDONESIA</t>
-  </si>
-  <si>
-    <t>Muhammad Ihsan Rahmatullah</t>
   </si>
   <si>
     <t>Muhammad Febriansyah</t>
@@ -664,74 +661,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1041,20 +1038,20 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="120.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.6640625" style="1"/>
-    <col min="4" max="4" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="120.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.7109375" style="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:11" s="2" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>27</v>
       </c>
@@ -1064,33 +1061,33 @@
       <c r="C3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="49"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="15"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="45"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="37"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
@@ -1098,18 +1095,18 @@
         <v>31</v>
       </c>
       <c r="C5" s="16"/>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="39"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="34"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -1117,18 +1114,18 @@
       <c r="C6" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="51"/>
-    </row>
-    <row r="7" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="46"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
@@ -1136,33 +1133,33 @@
       <c r="C7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="48"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="43"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="15"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="45"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D8" s="35"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="37"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
@@ -1170,18 +1167,18 @@
         <v>31</v>
       </c>
       <c r="C9" s="16"/>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="39"/>
-    </row>
-    <row r="10" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="34"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>7</v>
       </c>
@@ -1189,33 +1186,33 @@
         <v>31</v>
       </c>
       <c r="C10" s="17"/>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="40"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="45"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D11" s="35"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="37"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>9</v>
       </c>
@@ -1223,18 +1220,18 @@
       <c r="C12" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="39"/>
-    </row>
-    <row r="13" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="34"/>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
@@ -1242,33 +1239,33 @@
         <v>31</v>
       </c>
       <c r="C13" s="17"/>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="42"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="40"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="45"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="37"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>12</v>
       </c>
@@ -1276,18 +1273,18 @@
         <v>31</v>
       </c>
       <c r="C15" s="16"/>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="39"/>
-    </row>
-    <row r="16" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="34"/>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>13</v>
       </c>
@@ -1295,33 +1292,33 @@
         <v>31</v>
       </c>
       <c r="C16" s="17"/>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="42"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="40"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="15"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="45"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D17" s="35"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="37"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>15</v>
       </c>
@@ -1329,18 +1326,18 @@
       <c r="C18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="39"/>
-    </row>
-    <row r="19" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="34"/>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>16</v>
       </c>
@@ -1348,33 +1345,33 @@
         <v>31</v>
       </c>
       <c r="C19" s="17"/>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="42"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="40"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="15"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="45"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D20" s="35"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="37"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>18</v>
       </c>
@@ -1382,18 +1379,18 @@
         <v>31</v>
       </c>
       <c r="C21" s="16"/>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="39"/>
-    </row>
-    <row r="22" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="34"/>
+    </row>
+    <row r="22" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>19</v>
       </c>
@@ -1401,33 +1398,33 @@
         <v>31</v>
       </c>
       <c r="C22" s="17"/>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="40"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="15"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="45"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D23" s="35"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="37"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>21</v>
       </c>
@@ -1435,18 +1432,18 @@
         <v>31</v>
       </c>
       <c r="C24" s="16"/>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="39"/>
-    </row>
-    <row r="25" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="34"/>
+    </row>
+    <row r="25" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>22</v>
       </c>
@@ -1454,148 +1451,134 @@
         <v>31</v>
       </c>
       <c r="C25" s="17"/>
-      <c r="D25" s="40" t="s">
+      <c r="D25" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="42"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="34" t="s">
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="40"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="32" t="s">
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="32" t="s">
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="32" t="s">
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="32"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="32"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="32"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="50"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="50"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="50"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="D18:K18"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="D19:K19"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="D23:K23"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
     <mergeCell ref="D24:K24"/>
     <mergeCell ref="D25:K25"/>
     <mergeCell ref="D5:K5"/>
@@ -1612,12 +1595,26 @@
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="D19:K19"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="D23:K23"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="D18:K18"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="D14:K14"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1628,24 +1625,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:D30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="120.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.6640625" style="1"/>
-    <col min="4" max="4" width="87.6640625" customWidth="1"/>
+    <col min="1" max="1" width="120.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.7109375" style="1"/>
+    <col min="4" max="4" width="87.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -1659,7 +1656,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -1667,7 +1664,7 @@
       <c r="C4" s="22"/>
       <c r="D4" s="23"/>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
@@ -1679,7 +1676,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -1691,7 +1688,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
@@ -1703,7 +1700,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
@@ -1711,7 +1708,7 @@
       <c r="C8" s="22"/>
       <c r="D8" s="23"/>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
@@ -1723,7 +1720,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>7</v>
       </c>
@@ -1735,7 +1732,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
@@ -1743,7 +1740,7 @@
       <c r="C11" s="22"/>
       <c r="D11" s="23"/>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>9</v>
       </c>
@@ -1755,7 +1752,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
@@ -1767,7 +1764,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>11</v>
       </c>
@@ -1775,7 +1772,7 @@
       <c r="C14" s="22"/>
       <c r="D14" s="23"/>
     </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>12</v>
       </c>
@@ -1787,7 +1784,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>13</v>
       </c>
@@ -1799,7 +1796,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>14</v>
       </c>
@@ -1807,7 +1804,7 @@
       <c r="C17" s="22"/>
       <c r="D17" s="23"/>
     </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>15</v>
       </c>
@@ -1819,7 +1816,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>16</v>
       </c>
@@ -1831,7 +1828,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>17</v>
       </c>
@@ -1839,7 +1836,7 @@
       <c r="C20" s="22"/>
       <c r="D20" s="23"/>
     </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>18</v>
       </c>
@@ -1851,7 +1848,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>19</v>
       </c>
@@ -1863,7 +1860,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>20</v>
       </c>
@@ -1871,7 +1868,7 @@
       <c r="C23" s="22"/>
       <c r="D23" s="23"/>
     </row>
-    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>21</v>
       </c>
@@ -1883,7 +1880,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>22</v>
       </c>
@@ -1895,101 +1892,101 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="32" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="32" t="s">
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36"/>
       <c r="C36"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37"/>
       <c r="C37"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38"/>
       <c r="C38"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C39" s="31"/>
       <c r="D39" s="31"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="31"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="30"/>
       <c r="C42" s="31"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D43" s="31"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D44" s="31"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="30"/>
       <c r="C46" s="31"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="30"/>
       <c r="C47" s="31"/>
     </row>
@@ -2016,14 +2013,14 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="120.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.6640625" style="1"/>
-    <col min="4" max="4" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="120.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.7109375" style="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -2031,8 +2028,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>27</v>
       </c>
@@ -2046,7 +2043,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -2054,7 +2051,7 @@
       <c r="C4" s="15"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
@@ -2062,7 +2059,7 @@
       <c r="C5" s="16"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -2070,7 +2067,7 @@
       <c r="C6" s="16"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
@@ -2078,7 +2075,7 @@
       <c r="C7" s="17"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
@@ -2086,7 +2083,7 @@
       <c r="C8" s="15"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
@@ -2094,7 +2091,7 @@
       <c r="C9" s="16"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>7</v>
       </c>
@@ -2102,7 +2099,7 @@
       <c r="C10" s="17"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
@@ -2110,7 +2107,7 @@
       <c r="C11" s="15"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>9</v>
       </c>
@@ -2118,7 +2115,7 @@
       <c r="C12" s="16"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
@@ -2126,7 +2123,7 @@
       <c r="C13" s="17"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>11</v>
       </c>
@@ -2134,7 +2131,7 @@
       <c r="C14" s="15"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>12</v>
       </c>
@@ -2142,7 +2139,7 @@
       <c r="C15" s="16"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>13</v>
       </c>
@@ -2150,7 +2147,7 @@
       <c r="C16" s="17"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>14</v>
       </c>
@@ -2158,7 +2155,7 @@
       <c r="C17" s="15"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>15</v>
       </c>
@@ -2166,7 +2163,7 @@
       <c r="C18" s="16"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>16</v>
       </c>
@@ -2174,7 +2171,7 @@
       <c r="C19" s="17"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>17</v>
       </c>
@@ -2182,7 +2179,7 @@
       <c r="C20" s="15"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>18</v>
       </c>
@@ -2190,7 +2187,7 @@
       <c r="C21" s="16"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>19</v>
       </c>
@@ -2198,7 +2195,7 @@
       <c r="C22" s="17"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>20</v>
       </c>
@@ -2206,7 +2203,7 @@
       <c r="C23" s="15"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>21</v>
       </c>
@@ -2214,7 +2211,7 @@
       <c r="C24" s="16"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>22</v>
       </c>
@@ -2222,93 +2219,87 @@
       <c r="C25" s="17"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="34" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="32" t="s">
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="32" t="s">
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="32" t="s">
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="32" t="s">
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="32" t="s">
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
@@ -2316,6 +2307,12 @@
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2327,23 +2324,23 @@
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="120.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="120.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>27</v>
       </c>
@@ -2357,7 +2354,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -2365,7 +2362,7 @@
       <c r="C4" s="15"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
@@ -2373,7 +2370,7 @@
       <c r="C5" s="16"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -2381,7 +2378,7 @@
       <c r="C6" s="16"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
@@ -2389,7 +2386,7 @@
       <c r="C7" s="17"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
@@ -2397,7 +2394,7 @@
       <c r="C8" s="15"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
@@ -2405,7 +2402,7 @@
       <c r="C9" s="16"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>7</v>
       </c>
@@ -2413,7 +2410,7 @@
       <c r="C10" s="17"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
@@ -2421,7 +2418,7 @@
       <c r="C11" s="15"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>9</v>
       </c>
@@ -2429,7 +2426,7 @@
       <c r="C12" s="16"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
@@ -2437,7 +2434,7 @@
       <c r="C13" s="17"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>11</v>
       </c>
@@ -2445,7 +2442,7 @@
       <c r="C14" s="15"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>12</v>
       </c>
@@ -2453,7 +2450,7 @@
       <c r="C15" s="16"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>13</v>
       </c>
@@ -2461,7 +2458,7 @@
       <c r="C16" s="17"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>14</v>
       </c>
@@ -2469,7 +2466,7 @@
       <c r="C17" s="15"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>15</v>
       </c>
@@ -2477,7 +2474,7 @@
       <c r="C18" s="16"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>16</v>
       </c>
@@ -2485,7 +2482,7 @@
       <c r="C19" s="17"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>17</v>
       </c>
@@ -2493,7 +2490,7 @@
       <c r="C20" s="15"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>18</v>
       </c>
@@ -2501,7 +2498,7 @@
       <c r="C21" s="16"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>19</v>
       </c>
@@ -2509,7 +2506,7 @@
       <c r="C22" s="17"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>20</v>
       </c>
@@ -2517,7 +2514,7 @@
       <c r="C23" s="15"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>21</v>
       </c>
@@ -2525,7 +2522,7 @@
       <c r="C24" s="16"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>22</v>
       </c>
@@ -2533,123 +2530,135 @@
       <c r="C25" s="17"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="34" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="32" t="s">
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="32" t="s">
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="32" t="s">
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="32" t="s">
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="32" t="s">
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="32" t="s">
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="32" t="s">
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="32" t="s">
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="32" t="s">
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
     <mergeCell ref="B46:D46"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B40:D40"/>
@@ -2657,18 +2666,6 @@
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2680,7 +2677,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/file/audit internal.xlsx
+++ b/assets/file/audit internal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\navigo-transportation.github.io\assets\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F1EEB6-3824-4565-AACF-C2589379A3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D6E3B6-429E-448C-9183-0F2EB96E68B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -259,9 +259,6 @@
     <t>Auditor 2  PT NAVIGO INDONESIA</t>
   </si>
   <si>
-    <t>Muhammad Febriansyah</t>
-  </si>
-  <si>
     <t>NIM : 244107020218</t>
   </si>
   <si>
@@ -296,6 +293,9 @@
   </si>
   <si>
     <t>Auditor 2 PT NAVIGO INDONESIA</t>
+  </si>
+  <si>
+    <t>Muhammad Ihsan Rahmatullah</t>
   </si>
 </sst>
 </file>
@@ -661,6 +661,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -670,6 +685,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -679,15 +703,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -714,21 +729,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1047,7 +1047,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1061,16 +1061,16 @@
       <c r="C3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -1078,14 +1078,14 @@
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="15"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="37"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="45"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -1095,16 +1095,16 @@
         <v>31</v>
       </c>
       <c r="C5" s="16"/>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="34"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="39"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -1114,16 +1114,16 @@
       <c r="C6" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="46"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="51"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -1133,16 +1133,16 @@
       <c r="C7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="43"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="48"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
@@ -1150,14 +1150,14 @@
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="15"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="37"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="45"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
@@ -1167,16 +1167,16 @@
         <v>31</v>
       </c>
       <c r="C9" s="16"/>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="34"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="39"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
@@ -1186,16 +1186,16 @@
         <v>31</v>
       </c>
       <c r="C10" s="17"/>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="40"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="42"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -1203,14 +1203,14 @@
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="37"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="45"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
@@ -1220,16 +1220,16 @@
       <c r="C12" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="34"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
@@ -1239,16 +1239,16 @@
         <v>31</v>
       </c>
       <c r="C13" s="17"/>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -1256,14 +1256,14 @@
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="37"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="45"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -1273,16 +1273,16 @@
         <v>31</v>
       </c>
       <c r="C15" s="16"/>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="34"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="39"/>
     </row>
     <row r="16" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
@@ -1292,16 +1292,16 @@
         <v>31</v>
       </c>
       <c r="C16" s="17"/>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="40"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="42"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
@@ -1309,14 +1309,14 @@
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="15"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="37"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="45"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
@@ -1326,16 +1326,16 @@
       <c r="C18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="34"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="39"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
@@ -1345,16 +1345,16 @@
         <v>31</v>
       </c>
       <c r="C19" s="17"/>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="40"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="42"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
@@ -1362,14 +1362,14 @@
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="15"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="37"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="45"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
@@ -1379,16 +1379,16 @@
         <v>31</v>
       </c>
       <c r="C21" s="16"/>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="34"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="39"/>
     </row>
     <row r="22" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
@@ -1398,16 +1398,16 @@
         <v>31</v>
       </c>
       <c r="C22" s="17"/>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="40"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="42"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
@@ -1415,14 +1415,14 @@
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="15"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="37"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="45"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
@@ -1432,16 +1432,16 @@
         <v>31</v>
       </c>
       <c r="C24" s="16"/>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="34"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="39"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
@@ -1451,134 +1451,148 @@
         <v>31</v>
       </c>
       <c r="C25" s="17"/>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="40"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="42"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="50" t="s">
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="50" t="s">
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="52"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="50" t="s">
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="50"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="52"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="52"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="52"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="50"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="50"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="D18:K18"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="D19:K19"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="D23:K23"/>
     <mergeCell ref="D24:K24"/>
     <mergeCell ref="D25:K25"/>
     <mergeCell ref="D5:K5"/>
@@ -1595,26 +1609,12 @@
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B33:D33"/>
-    <mergeCell ref="D19:K19"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="D23:K23"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="D18:K18"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1626,7 +1626,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:D33"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1638,7 +1638,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1893,54 +1893,54 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
+      <c r="B27" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
+      <c r="B32" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="B33" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36"/>
@@ -1956,14 +1956,14 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="30" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C39" s="31"/>
       <c r="D39" s="31"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" s="31"/>
       <c r="D40" s="1"/>
@@ -2220,86 +2220,92 @@
       <c r="D25" s="5"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
+      <c r="B35" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="52"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
@@ -2307,12 +2313,6 @@
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2333,7 +2333,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>29</v>
@@ -2531,122 +2531,134 @@
       <c r="D25" s="5"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="52"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="52"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="52"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="52"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
@@ -2654,18 +2666,6 @@
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
